--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeok\Desktop\database\itucsdb1938\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D95580-DC54-4579-91D5-D92AAA7100FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E3B12-E701-43C2-8960-021A4FB615D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{CD6D5736-004C-459B-A721-EBD61DD79355}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Product ID(key)</t>
   </si>
@@ -207,16 +207,46 @@
     <t>asd</t>
   </si>
   <si>
-    <t>aldım</t>
-  </si>
-  <si>
-    <t>sattı</t>
-  </si>
-  <si>
-    <t>kesti</t>
-  </si>
-  <si>
     <t>Warehouse economy</t>
+  </si>
+  <si>
+    <t>Transaction ID(key)</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>IsDispatched</t>
+  </si>
+  <si>
+    <t>Money Earnt</t>
+  </si>
+  <si>
+    <t>Total ATM</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>itemin yeri</t>
+  </si>
+  <si>
+    <t>itemden sorumlu kişi</t>
+  </si>
+  <si>
+    <t>order time</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Tmp Order</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Provider ID</t>
   </si>
 </sst>
 </file>
@@ -581,23 +611,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BF2EA-2308-4D4D-BD43-7AC7134C789C}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -841,6 +872,9 @@
       <c r="F12" t="s">
         <v>38</v>
       </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -861,32 +895,80 @@
       <c r="F14" t="s">
         <v>45</v>
       </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <v>50</v>
-      </c>
-      <c r="O20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
         <v>70</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeok\Desktop\database\itucsdb1938\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E3B12-E701-43C2-8960-021A4FB615D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7188075-CD88-4E3B-9900-0991B4078F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{CD6D5736-004C-459B-A721-EBD61DD79355}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>Product ID(key)</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Prover Id(key)</t>
   </si>
   <si>
-    <t>Provider Name</t>
-  </si>
-  <si>
     <t>Provider Adress</t>
   </si>
   <si>
@@ -219,15 +216,6 @@
     <t>IsDispatched</t>
   </si>
   <si>
-    <t>Money Earnt</t>
-  </si>
-  <si>
-    <t>Total ATM</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>itemin yeri</t>
   </si>
   <si>
@@ -247,6 +235,36 @@
   </si>
   <si>
     <t>Provider ID</t>
+  </si>
+  <si>
+    <t>Supply Order</t>
+  </si>
+  <si>
+    <t>Supply order ID</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Cargo Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Authorized Person Name</t>
+  </si>
+  <si>
+    <t>Provider Company Name</t>
+  </si>
+  <si>
+    <t>Supply Order ID</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
 </sst>
 </file>
@@ -614,7 +632,7 @@
   <dimension ref="A2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +643,7 @@
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -651,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -662,10 +680,10 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>70</v>
@@ -674,15 +692,15 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -754,22 +772,22 @@
         <v>563</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7">
         <v>1235456678</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2">
         <v>43755</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -795,24 +813,24 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>123</v>
@@ -844,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -861,64 +879,70 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -936,39 +960,63 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
       <c r="P20" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeok\Desktop\database\itucsdb1938\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7188075-CD88-4E3B-9900-0991B4078F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73DE35D-91BF-4D9C-BB03-916647C82F01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{CD6D5736-004C-459B-A721-EBD61DD79355}"/>
   </bookViews>
@@ -258,13 +258,13 @@
     <t>Provider Company Name</t>
   </si>
   <si>
-    <t>Supply Order ID</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Product Name</t>
+  </si>
+  <si>
+    <t>Supply Order ID(key)</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157BF2EA-2308-4D4D-BD43-7AC7134C789C}">
   <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -992,10 +992,10 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
         <v>78</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
       </c>
       <c r="H20" t="s">
         <v>2</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egeok\Desktop\database\itucsdb1938\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73DE35D-91BF-4D9C-BB03-916647C82F01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C810C-0FBD-4E0D-83AD-D331E5F22C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{CD6D5736-004C-459B-A721-EBD61DD79355}"/>
   </bookViews>
@@ -288,12 +288,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,11 +315,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,7 +639,7 @@
   <dimension ref="A2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,28 +749,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -791,28 +798,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -872,48 +879,48 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>75</v>
       </c>
     </row>
